--- a/Calculate-Trip-Cost/ExcelData/Output.xlsx
+++ b/Calculate-Trip-Cost/ExcelData/Output.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA7AEA-AEFE-4E2C-9A25-7CAA4641EE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="12804" windowHeight="3912"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChromeOutput" sheetId="1" r:id="rId1"/>
@@ -12,12 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Holiday Homes</t>
   </si>
@@ -59,42 +59,6 @@
   </si>
   <si>
     <t>German</t>
-  </si>
-  <si>
-    <t>₹ 8,460</t>
-  </si>
-  <si>
-    <t>₹ 42,300 / 5 nights</t>
-  </si>
-  <si>
-    <t>₹ 12,859</t>
-  </si>
-  <si>
-    <t>₹ 64,297 / 5 nights</t>
-  </si>
-  <si>
-    <t>₹ 14,720</t>
-  </si>
-  <si>
-    <t>₹ 73,603 / 5 nights</t>
-  </si>
-  <si>
-    <t>Cozy Rooms - JKIA</t>
-  </si>
-  <si>
-    <t>₹ 4,094</t>
-  </si>
-  <si>
-    <t>₹ 20,474 / 5 nights</t>
-  </si>
-  <si>
-    <t>Anga Afrika Boutique Camp with Pool</t>
-  </si>
-  <si>
-    <t>₹ 42,300</t>
-  </si>
-  <si>
-    <t>₹ 2,11,504 / 5 nights</t>
   </si>
   <si>
     <t>₹ 8,467</t>
@@ -118,8 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,15 +92,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -145,12 +114,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,6 +146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -208,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,9 +230,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,125 +474,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="67.43359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="67.43359375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.3359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.6796875" collapsed="true"/>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,92 +615,94 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>